--- a/學生成績單.xlsx
+++ b/學生成績單.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,41 +481,49 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>排名</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>李雅怡</t>
+          <t>楊又源</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="I2" t="n">
-        <v>85.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="J2" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,678 +533,738 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>林佳光</t>
+          <t>柯韋成</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" t="n">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="I3" t="n">
-        <v>84.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="J3" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>柯韋成</t>
+          <t>高信宏</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E4" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H4" t="n">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="I4" t="n">
-        <v>84</v>
+        <v>87.2</v>
       </c>
       <c r="J4" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="K4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>王孝純</t>
+          <t>陳信念</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E5" t="n">
+        <v>83</v>
+      </c>
+      <c r="F5" t="n">
         <v>78</v>
       </c>
-      <c r="E5" t="n">
-        <v>62</v>
-      </c>
-      <c r="F5" t="n">
-        <v>88</v>
-      </c>
       <c r="G5" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="I5" t="n">
-        <v>83.8</v>
+        <v>87.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>87.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>陳樂紫</t>
+          <t>童建霖</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F6" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="H6" t="n">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="I6" t="n">
-        <v>82.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>87.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>王志謙</t>
+          <t>楊韋廷</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E7" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F7" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" t="n">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="I7" t="n">
-        <v>81.8</v>
+        <v>87</v>
       </c>
       <c r="J7" t="n">
+        <v>87</v>
+      </c>
+      <c r="K7" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>賴昌韻</t>
+          <t>程玫靖</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F8" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G8" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H8" t="n">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="I8" t="n">
-        <v>81</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J8" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="K8" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>李美洋</t>
+          <t>陳筱涵</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" t="n">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="I9" t="n">
-        <v>81</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J9" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="K9" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>黃佩玲</t>
+          <t>陳逸華</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H10" t="n">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="I10" t="n">
-        <v>80.2</v>
+        <v>85</v>
       </c>
       <c r="J10" t="n">
+        <v>85</v>
+      </c>
+      <c r="K10" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>吳麗卿</t>
+          <t>張彥博</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="H11" t="n">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="I11" t="n">
-        <v>79.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="J11" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="K11" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>盧冠發</t>
+          <t>林怡偉</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F12" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G12" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H12" t="n">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="I12" t="n">
-        <v>79</v>
+        <v>83.2</v>
       </c>
       <c r="J12" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="K12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>翁羽威</t>
+          <t>劉雯芬</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F13" t="n">
+        <v>92</v>
+      </c>
+      <c r="G13" t="n">
         <v>99</v>
       </c>
-      <c r="G13" t="n">
-        <v>76</v>
-      </c>
       <c r="H13" t="n">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="I13" t="n">
-        <v>78.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="J13" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K13" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>白美珍</t>
+          <t>柯宜臻</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E14" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G14" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H14" t="n">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="I14" t="n">
-        <v>78.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>13</v>
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>李立偉</t>
+          <t>孫火清</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D15" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E15" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F15" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G15" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H15" t="n">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="I15" t="n">
-        <v>78.2</v>
+        <v>82.2</v>
       </c>
       <c r="J15" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>余丞苓</t>
+          <t>張明惟</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E16" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F16" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G16" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H16" t="n">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="I16" t="n">
-        <v>78</v>
+        <v>81.8</v>
       </c>
       <c r="J16" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="K16" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>劉萬季</t>
+          <t>高士凱</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G17" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H17" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="I17" t="n">
-        <v>77.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="J17" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K17" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>陳志偉</t>
+          <t>劉依婷</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D18" t="n">
+        <v>63</v>
+      </c>
+      <c r="E18" t="n">
         <v>67</v>
       </c>
-      <c r="E18" t="n">
-        <v>64</v>
-      </c>
       <c r="F18" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G18" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H18" t="n">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="I18" t="n">
-        <v>77.40000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="J18" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="K18" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>陳怡容</t>
+          <t>張凱妮</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" t="n">
+        <v>88</v>
+      </c>
+      <c r="E19" t="n">
         <v>71</v>
       </c>
-      <c r="E19" t="n">
-        <v>66</v>
-      </c>
       <c r="F19" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G19" t="n">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="H19" t="n">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="I19" t="n">
-        <v>77.2</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="J19" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="K19" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>林志喜</t>
+          <t>錢欣潔</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F20" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G20" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H20" t="n">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="I20" t="n">
-        <v>77</v>
+        <v>79.2</v>
       </c>
       <c r="J20" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="K20" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>林清英</t>
+          <t>黃嘉琪</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="n">
+        <v>58</v>
+      </c>
+      <c r="E21" t="n">
         <v>70</v>
       </c>
-      <c r="E21" t="n">
-        <v>74</v>
-      </c>
       <c r="F21" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G21" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H21" t="n">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="I21" t="n">
-        <v>77</v>
+        <v>79.2</v>
       </c>
       <c r="J21" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="K21" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>王柏聖</t>
+          <t>方雅慧</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D22" t="n">
+        <v>67</v>
+      </c>
+      <c r="E22" t="n">
         <v>97</v>
       </c>
-      <c r="E22" t="n">
-        <v>62</v>
-      </c>
       <c r="F22" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G22" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H22" t="n">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="I22" t="n">
-        <v>76.8</v>
+        <v>79.2</v>
       </c>
       <c r="J22" t="n">
-        <v>21</v>
+        <v>79.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1205,513 +1273,558 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>周怡啟</t>
+          <t>邱亭君</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D23" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F23" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G23" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="H23" t="n">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="I23" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="J23" t="n">
-        <v>21</v>
+        <v>79</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>錢欣潔</t>
+          <t>張俊傑</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E24" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F24" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G24" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H24" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I24" t="n">
-        <v>76.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="J24" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K24" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>王梅劭</t>
+          <t>黃麗美</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>82</v>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E25" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F25" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G25" t="n">
+        <v>50</v>
+      </c>
+      <c r="H25" t="n">
+        <v>385</v>
+      </c>
+      <c r="I25" t="n">
         <v>77</v>
       </c>
-      <c r="H25" t="n">
-        <v>383</v>
-      </c>
-      <c r="I25" t="n">
-        <v>76.59999999999999</v>
-      </c>
       <c r="J25" t="n">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="K25" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>潘英迪</t>
+          <t>戴萱能</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E26" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="G26" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H26" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I26" t="n">
-        <v>76</v>
+        <v>76.8</v>
       </c>
       <c r="J26" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K26" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>謝貞妃</t>
+          <t>呂傑宣</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D27" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E27" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F27" t="n">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="G27" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H27" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I27" t="n">
-        <v>75</v>
+        <v>76.8</v>
       </c>
       <c r="J27" t="n">
-        <v>26</v>
+        <v>76.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>陳凱翔</t>
+          <t>孫宜珊</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D28" t="n">
+        <v>55</v>
+      </c>
+      <c r="E28" t="n">
+        <v>85</v>
+      </c>
+      <c r="F28" t="n">
+        <v>87</v>
+      </c>
+      <c r="G28" t="n">
         <v>88</v>
       </c>
-      <c r="E28" t="n">
-        <v>59</v>
-      </c>
-      <c r="F28" t="n">
-        <v>84</v>
-      </c>
-      <c r="G28" t="n">
-        <v>90</v>
-      </c>
       <c r="H28" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="I28" t="n">
-        <v>74.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="J28" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="K28" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>許芳如</t>
+          <t>鄭憲定</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D29" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E29" t="n">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F29" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G29" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H29" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="I29" t="n">
-        <v>73.8</v>
+        <v>76.2</v>
       </c>
       <c r="J29" t="n">
-        <v>28</v>
+        <v>76.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>蔡世馨</t>
+          <t>金宜芳</t>
         </is>
       </c>
       <c r="C30" t="n">
+        <v>62</v>
+      </c>
+      <c r="D30" t="n">
+        <v>77</v>
+      </c>
+      <c r="E30" t="n">
+        <v>98</v>
+      </c>
+      <c r="F30" t="n">
+        <v>82</v>
+      </c>
+      <c r="G30" t="n">
+        <v>56</v>
+      </c>
+      <c r="H30" t="n">
+        <v>375</v>
+      </c>
+      <c r="I30" t="n">
         <v>75</v>
       </c>
-      <c r="D30" t="n">
-        <v>65</v>
-      </c>
-      <c r="E30" t="n">
-        <v>59</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>70</v>
-      </c>
-      <c r="H30" t="n">
-        <v>369</v>
-      </c>
-      <c r="I30" t="n">
-        <v>73.8</v>
-      </c>
       <c r="J30" t="n">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>郭舜昇</t>
+          <t>簡美君</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E31" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F31" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G31" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H31" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I31" t="n">
-        <v>73.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="J31" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="K31" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>戚亨</t>
+          <t>周琬婷</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E32" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F32" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G32" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H32" t="n">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="I32" t="n">
-        <v>72</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>31</v>
+        <v>74.40000000000001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>賴昌韻</t>
+          <t>王明昇</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D33" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E33" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F33" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H33" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="I33" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J33" t="n">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="K33" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>方筠紹</t>
+          <t>藍哲嘉</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F34" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G34" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H34" t="n">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="I34" t="n">
-        <v>71.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="J34" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K34" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>楊又源</t>
+          <t>游詩亞</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E35" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F35" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G35" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H35" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I35" t="n">
-        <v>71.59999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>33</v>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>周家銘</t>
+          <t>李政白</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D36" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E36" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G36" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I36" t="n">
-        <v>71.59999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>33</v>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吳志宣</t>
+          <t>陳建香</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D37" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E37" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F37" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G37" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H37" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I37" t="n">
-        <v>71.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="J37" t="n">
-        <v>33</v>
+        <v>72.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1719,469 +1832,511 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E38" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F38" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H38" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I38" t="n">
-        <v>71.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="J38" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="K38" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>高俊男</t>
+          <t>楊韻如</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D39" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E39" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F39" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G39" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H39" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I39" t="n">
-        <v>70.8</v>
+        <v>70</v>
       </c>
       <c r="J39" t="n">
+        <v>70</v>
+      </c>
+      <c r="K39" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>謝水儒</t>
+          <t>鄭佳玲</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D40" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E40" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F40" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G40" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H40" t="n">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I40" t="n">
-        <v>70.59999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="J40" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="K40" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>王士銘</t>
+          <t>謝水儒</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D41" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E41" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F41" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G41" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H41" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I41" t="n">
-        <v>70</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="J41" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="K41" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>詹忠光</t>
+          <t>孫火清</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E42" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F42" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G42" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H42" t="n">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I42" t="n">
-        <v>69.8</v>
+        <v>68</v>
       </c>
       <c r="J42" t="n">
+        <v>68</v>
+      </c>
+      <c r="K42" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>劉佳佩</t>
+          <t>朱惠儀</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E43" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F43" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G43" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H43" t="n">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I43" t="n">
-        <v>69.2</v>
+        <v>67.2</v>
       </c>
       <c r="J43" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="K43" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>彭虹屏</t>
+          <t>王德城</t>
         </is>
       </c>
       <c r="C44" t="n">
+        <v>51</v>
+      </c>
+      <c r="D44" t="n">
         <v>61</v>
       </c>
-      <c r="D44" t="n">
-        <v>99</v>
-      </c>
       <c r="E44" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F44" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G44" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="H44" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I44" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J44" t="n">
+        <v>67</v>
+      </c>
+      <c r="K44" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>簡美君</t>
+          <t>崔孝憲</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D45" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E45" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F45" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G45" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H45" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I45" t="n">
-        <v>66.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="J45" t="n">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="K45" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>王志謙</t>
+          <t>黃志福</t>
         </is>
       </c>
       <c r="C46" t="n">
+        <v>82</v>
+      </c>
+      <c r="D46" t="n">
+        <v>57</v>
+      </c>
+      <c r="E46" t="n">
         <v>67</v>
       </c>
-      <c r="D46" t="n">
-        <v>51</v>
-      </c>
-      <c r="E46" t="n">
-        <v>63</v>
-      </c>
       <c r="F46" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G46" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="H46" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I46" t="n">
-        <v>65.59999999999999</v>
+        <v>66</v>
       </c>
       <c r="J46" t="n">
+        <v>66</v>
+      </c>
+      <c r="K46" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>郭致恬</t>
+          <t>楊韋廷</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D47" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E47" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F47" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G47" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H47" t="n">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="I47" t="n">
-        <v>61.4</v>
+        <v>65.8</v>
       </c>
       <c r="J47" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="K47" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>張嘉韋</t>
+          <t>程玫靖</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D48" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E48" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" t="n">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H48" t="n">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="I48" t="n">
-        <v>60.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="J48" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="K48" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>陳建香</t>
+          <t>黃淑芬</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D49" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E49" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F49" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G49" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H49" t="n">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="I49" t="n">
-        <v>58</v>
+        <v>63.8</v>
       </c>
       <c r="J49" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="K49" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>張明惟</t>
+          <t>吳柏誠</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E50" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F50" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G50" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H50" t="n">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="I50" t="n">
-        <v>57.8</v>
+        <v>63.4</v>
       </c>
       <c r="J50" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="K50" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>錢欣潔</t>
+          <t>簡國瑋</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D51" t="n">
         <v>51</v>
       </c>
       <c r="E51" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F51" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G51" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="H51" t="n">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="I51" t="n">
-        <v>56.4</v>
+        <v>62.6</v>
       </c>
       <c r="J51" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="K51" t="n">
         <v>50</v>
       </c>
     </row>
